--- a/doc/会议纪要/会议纪要.xlsx
+++ b/doc/会议纪要/会议纪要.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15800" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="12" r:id="rId1"/>
     <sheet name="更改履历" sheetId="14" r:id="rId2"/>
     <sheet name="会议纪要7月8日" sheetId="13" r:id="rId3"/>
     <sheet name="会议纪要7月9日" sheetId="15" r:id="rId4"/>
+    <sheet name="会议纪要7月10日" sheetId="16" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_ML1">[1]分类数据!$C$3</definedName>
@@ -152,8 +153,46 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>caowei</author>
+  </authors>
+  <commentList>
+    <comment ref="H10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>记录人负责记录会议议题讨论的结论：
+通过、不通过、完善后通过，延后讨论</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>记录人负责对会议决议进行跟踪，并标识跟踪状态：
+已解决、转入问题日志、接受改善建议</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="98">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -418,6 +457,93 @@
     <t>再次分配任务</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>数据库的设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>公用代码设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 协作图</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用例表 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>延后讨论</t>
+  </si>
+  <si>
+    <t>数据库协助设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐宇</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>王</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="7"/>
+        <charset val="134"/>
+      </rPr>
+      <t>艾舒</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型设计协助</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈释荣</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体模块设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>王振宇</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库的设计，原型设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体模块设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>王沛洋</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体模块设计协助</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦辉</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -430,7 +556,7 @@
     <numFmt numFmtId="178" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -656,8 +782,15 @@
       <family val="7"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Frutiger LT 55 Roman"/>
+      <family val="38"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,6 +807,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -758,7 +897,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -799,8 +938,30 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -903,6 +1064,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -927,6 +1106,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -948,12 +1139,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -966,6 +1151,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -975,32 +1172,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="49">
     <cellStyle name="_ET_STYLE_NoName_00_" xfId="5"/>
     <cellStyle name="Calc Currency (0)" xfId="6"/>
     <cellStyle name="ColLevel_0" xfId="3"/>
@@ -1017,10 +1211,32 @@
     <cellStyle name="常规_封页" xfId="16"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="段落标题1" xfId="15"/>
     <cellStyle name="段落标题2" xfId="17"/>
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="桁区切り [0.00]_(D)日程計画" xfId="2"/>
     <cellStyle name="桁区切り_(D)日程計画" xfId="18"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -14220,15 +14436,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="53.25" customHeight="1">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
       <c r="I1" s="19"/>
     </row>
     <row r="3" spans="2:9" ht="15">
@@ -14390,151 +14606,151 @@
   <sheetData>
     <row r="1" spans="2:9" ht="7" customHeight="1"/>
     <row r="2" spans="2:9" ht="33.5" customHeight="1">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="2:9" ht="16.75" customHeight="1">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="2:9" ht="16.75" customHeight="1">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="55" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="59" t="s">
+      <c r="G4" s="67"/>
+      <c r="H4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="59"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="2:9" ht="16.75" customHeight="1">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="55" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="58" t="s">
+      <c r="G5" s="67"/>
+      <c r="H5" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="59"/>
+      <c r="I5" s="70"/>
     </row>
     <row r="6" spans="2:9" ht="16.75" customHeight="1">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
     </row>
     <row r="7" spans="2:9" ht="16.75" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="51" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="61">
+      <c r="G7" s="60"/>
+      <c r="H7" s="64">
         <v>41828</v>
       </c>
-      <c r="I7" s="54"/>
+      <c r="I7" s="62"/>
     </row>
     <row r="8" spans="2:9" ht="16.75" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="51" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53" t="s">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="54"/>
+      <c r="I8" s="62"/>
     </row>
     <row r="9" spans="2:9" ht="16.75" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="48"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="58"/>
     </row>
     <row r="10" spans="2:9" ht="16.75" customHeight="1">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="2:9" ht="20" customHeight="1">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
@@ -14546,11 +14762,11 @@
       <c r="C12" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="5" t="s">
         <v>34</v>
       </c>
@@ -14559,14 +14775,14 @@
       <c r="B13" s="4">
         <v>2</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="5" t="s">
         <v>34</v>
       </c>
@@ -14575,14 +14791,14 @@
       <c r="B14" s="4">
         <v>3</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="5" t="s">
         <v>34</v>
       </c>
@@ -14591,14 +14807,14 @@
       <c r="B15" s="4">
         <v>4</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="5" t="s">
         <v>75</v>
       </c>
@@ -14607,14 +14823,14 @@
       <c r="B16" s="4">
         <v>5</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="5" t="s">
         <v>34</v>
       </c>
@@ -14623,14 +14839,14 @@
       <c r="B17" s="4">
         <v>6</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
       <c r="I17" s="5" t="s">
         <v>77</v>
       </c>
@@ -14639,47 +14855,47 @@
       <c r="B18" s="4">
         <v>7</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:9" ht="20" customHeight="1">
       <c r="B19" s="4">
         <v>8</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:9" ht="20" customHeight="1">
       <c r="B20" s="4">
         <v>9</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:9" ht="20" customHeight="1">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="2" t="s">
         <v>36</v>
       </c>
@@ -14688,58 +14904,58 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="20" customHeight="1">
-      <c r="B22" s="41">
+      <c r="B22" s="47">
         <v>1</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="I22" s="42" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="20" customHeight="1">
-      <c r="B23" s="41"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="36"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="24" spans="2:9" ht="20" customHeight="1">
-      <c r="B24" s="41"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="36"/>
+      <c r="I24" s="42"/>
     </row>
     <row r="25" spans="2:9" ht="20" customHeight="1">
       <c r="B25" s="6">
         <v>2</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
       <c r="H25" s="7" t="s">
         <v>43</v>
       </c>
@@ -14751,13 +14967,13 @@
       <c r="B26" s="6">
         <v>5</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
       <c r="H26" s="7" t="s">
         <v>46</v>
       </c>
@@ -14769,13 +14985,13 @@
       <c r="B27" s="6">
         <v>6</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
       <c r="H27" s="7" t="s">
         <v>48</v>
       </c>
@@ -14787,13 +15003,13 @@
       <c r="B28" s="6">
         <v>7</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
       <c r="H28" s="7" t="s">
         <v>50</v>
       </c>
@@ -14805,13 +15021,13 @@
       <c r="B29" s="6">
         <v>8</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="7" t="s">
         <v>29</v>
       </c>
@@ -14886,95 +15102,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:G18"/>
+    <sheetView topLeftCell="A5" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="A1:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11" ht="25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="55" t="s">
+      <c r="D3" s="69"/>
+      <c r="E3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="59" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="59"/>
+      <c r="H3" s="70"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="55" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="58" t="s">
+      <c r="F4" s="67"/>
+      <c r="G4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -14983,19 +15199,19 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="51" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="61">
+      <c r="F6" s="60"/>
+      <c r="G6" s="64">
         <v>41829</v>
       </c>
-      <c r="H6" s="54"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -15004,19 +15220,19 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="51" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="54"/>
+      <c r="H7" s="62"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -15025,15 +15241,15 @@
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="48"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="58"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -15042,29 +15258,29 @@
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="3" t="s">
         <v>33</v>
       </c>
@@ -15076,14 +15292,14 @@
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="5" t="s">
         <v>34</v>
       </c>
@@ -15095,14 +15311,14 @@
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="5" t="s">
         <v>34</v>
       </c>
@@ -15117,11 +15333,11 @@
       <c r="B13" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="5" t="s">
         <v>34</v>
       </c>
@@ -15133,12 +15349,12 @@
       <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
       <c r="H14" s="5"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -15148,12 +15364,12 @@
       <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="5"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -15163,12 +15379,12 @@
       <c r="A16" s="4">
         <v>6</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
       <c r="H16" s="5"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -15178,12 +15394,12 @@
       <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="5"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -15193,12 +15409,12 @@
       <c r="A18" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -15208,26 +15424,26 @@
       <c r="A19" s="4">
         <v>9</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="5"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
       <c r="G20" s="2" t="s">
         <v>36</v>
       </c>
@@ -15242,13 +15458,13 @@
       <c r="A21" s="6">
         <v>1</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="7" t="s">
         <v>20</v>
       </c>
@@ -15261,13 +15477,13 @@
       <c r="A22" s="6">
         <v>2</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="7" t="s">
         <v>40</v>
       </c>
@@ -15280,13 +15496,13 @@
       <c r="A23" s="6">
         <v>3</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="7" t="s">
         <v>50</v>
       </c>
@@ -15299,13 +15515,13 @@
       <c r="A24" s="6">
         <v>4</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="7" t="s">
         <v>41</v>
       </c>
@@ -15318,13 +15534,13 @@
       <c r="A25" s="6">
         <v>5</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="7" t="s">
         <v>29</v>
       </c>
@@ -15337,13 +15553,13 @@
       <c r="A26" s="6">
         <v>6</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="7" t="s">
         <v>46</v>
       </c>
@@ -15356,13 +15572,13 @@
       <c r="A27" s="6">
         <v>7</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="7" t="s">
         <v>48</v>
       </c>
@@ -15375,13 +15591,13 @@
       <c r="A28" s="6">
         <v>8</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="7" t="s">
         <v>43</v>
       </c>
@@ -15443,7 +15659,510 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25">
+      <c r="A1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="67"/>
+      <c r="G3" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="70"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="67"/>
+      <c r="G4" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="70"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="64">
+        <v>41830</v>
+      </c>
+      <c r="H6" s="62"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="58"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="39">
+        <v>1</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="39">
+        <v>2</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="39">
+        <v>3</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="39">
+        <v>4</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="39">
+        <v>5</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="39">
+        <v>6</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="39">
+        <v>7</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="39">
+        <v>8</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="39">
+        <v>9</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="36">
+        <v>1</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="36">
+        <v>2</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="36">
+        <v>3</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="36">
+        <v>4</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="36">
+        <v>5</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="36">
+        <v>6</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="36">
+        <v>7</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="36">
+        <v>8</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21:H28">
+      <formula1>"已解决,转入问题日志,接受改善建议"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11:H19">
+      <formula1>"通过,不通过,完善后通过,延后讨论"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/doc/会议纪要/会议纪要.xlsx
+++ b/doc/会议纪要/会议纪要.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15800" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15800" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="12" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="会议纪要7月8日" sheetId="13" r:id="rId3"/>
     <sheet name="会议纪要7月9日" sheetId="15" r:id="rId4"/>
     <sheet name="会议纪要7月10日" sheetId="16" r:id="rId5"/>
+    <sheet name="会议纪要7月11日" sheetId="17" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_ML1">[1]分类数据!$C$3</definedName>
@@ -83,7 +84,7 @@
     <author>caowei</author>
   </authors>
   <commentList>
-    <comment ref="I11" authorId="0">
+    <comment ref="H11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I21" authorId="0">
+    <comment ref="H21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -191,8 +192,46 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>caowei</author>
+  </authors>
+  <commentList>
+    <comment ref="H10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>记录人负责记录会议议题讨论的结论：
+通过、不通过、完善后通过，延后讨论</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="7"/>
+            <charset val="134"/>
+          </rPr>
+          <t>记录人负责对会议决议进行跟踪，并标识跟踪状态：
+已解决、转入问题日志、接受改善建议</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="125">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -350,33 +389,6 @@
     <t>讨论并尝试完善设计</t>
   </si>
   <si>
-    <t>初步讨论数据库的设计</t>
-  </si>
-  <si>
-    <t>针对需求理解重新修改需求规约文档</t>
-  </si>
-  <si>
-    <t>协助完成需求规约</t>
-  </si>
-  <si>
-    <t>完成配置管理</t>
-  </si>
-  <si>
-    <t>检查需求规约文档</t>
-  </si>
-  <si>
-    <t>检查其他文档</t>
-  </si>
-  <si>
-    <t>完善测试计划</t>
-  </si>
-  <si>
-    <t>完善项目开发计划</t>
-  </si>
-  <si>
-    <t>数据库初步计划</t>
-  </si>
-  <si>
     <t>v1.0</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -386,10 +398,6 @@
   </si>
   <si>
     <t>新建</t>
-  </si>
-  <si>
-    <t>v2.0</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2014.7.9</t>
@@ -542,6 +550,166 @@
   </si>
   <si>
     <t>秦辉</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3.0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4.0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.7.9</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.7.10</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.7.11</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步讨论数据库的设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对需求理解重新修改需求规约文档</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求规约</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助完成需求规约</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>王艾舒</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成配置管理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查需求规约文档</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查其他文档</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善测试计划</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善项目开发计划</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库初步计划</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据库设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成公用代码设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成具体模块设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成协作图，时序图</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型设计（基础数据）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 原型设计（统计报表)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗晓平</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈释荣</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型设计（客户管理）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型设计（服务管理）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>王</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="7"/>
+        <charset val="134"/>
+      </rPr>
+      <t>艾舒</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">完成协作图，时序图 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐宇</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体模块设计协助</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘梦莹</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -897,7 +1065,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -960,8 +1128,14 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1082,6 +1256,27 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1178,12 +1373,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1193,8 +1382,14 @@
     <xf numFmtId="0" fontId="35" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="55">
     <cellStyle name="_ET_STYLE_NoName_00_" xfId="5"/>
     <cellStyle name="Calc Currency (0)" xfId="6"/>
     <cellStyle name="ColLevel_0" xfId="3"/>
@@ -1222,6 +1417,9 @@
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="段落标题1" xfId="15"/>
     <cellStyle name="段落标题2" xfId="17"/>
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
@@ -1237,6 +1435,9 @@
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="桁区切り [0.00]_(D)日程計画" xfId="2"/>
     <cellStyle name="桁区切り_(D)日程計画" xfId="18"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -14413,7 +14614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I30"/>
+  <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -14436,15 +14637,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="53.25" customHeight="1">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
       <c r="I1" s="19"/>
     </row>
     <row r="3" spans="2:9" ht="15">
@@ -14476,17 +14677,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="20"/>
@@ -14496,17 +14697,17 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="20"/>
@@ -14516,36 +14717,71 @@
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1"/>
-    <row r="8" spans="2:9" ht="30" customHeight="1">
+    <row r="7" spans="2:9" ht="18" customHeight="1">
+      <c r="B7" s="14">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="2:9" ht="15" customHeight="1">
+      <c r="B8" s="14">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="14"/>
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="2:9" ht="30" customHeight="1"/>
     <row r="10" spans="2:9" ht="30" customHeight="1"/>
     <row r="11" spans="2:9" ht="30" customHeight="1"/>
-    <row r="12" spans="2:9" ht="30" customHeight="1"/>
+    <row r="12" spans="2:9" ht="30" customHeight="1">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+    </row>
     <row r="13" spans="2:9" ht="30" customHeight="1">
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="2:9" ht="30" customHeight="1">
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-    </row>
+    <row r="14" spans="2:9" ht="30" customHeight="1"/>
     <row r="15" spans="2:9" ht="30" customHeight="1"/>
     <row r="16" spans="2:9" ht="30" customHeight="1"/>
     <row r="17" ht="30" customHeight="1"/>
@@ -14561,14 +14797,13 @@
     <row r="27" ht="30" customHeight="1"/>
     <row r="28" ht="30" customHeight="1"/>
     <row r="29" ht="30" customHeight="1"/>
-    <row r="30" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G8">
       <formula1>"新建,增加,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14584,506 +14819,505 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:H20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="10.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="7" customHeight="1"/>
-    <row r="2" spans="2:9" ht="33.5" customHeight="1">
-      <c r="B2" s="65" t="s">
+    <row r="1" spans="1:8" ht="7" customHeight="1"/>
+    <row r="2" spans="1:8" ht="33.5" customHeight="1">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
     </row>
-    <row r="3" spans="2:9" ht="16.75" customHeight="1">
-      <c r="B3" s="66" t="s">
+    <row r="3" spans="1:8" ht="16.75" customHeight="1">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
-    <row r="4" spans="2:9" ht="16.75" customHeight="1">
-      <c r="B4" s="67" t="s">
+    <row r="4" spans="1:8" ht="16.75" customHeight="1">
+      <c r="A4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="67" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="70" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="70"/>
+      <c r="H4" s="77"/>
     </row>
-    <row r="5" spans="2:9" ht="16.75" customHeight="1">
-      <c r="B5" s="67" t="s">
+    <row r="5" spans="1:8" ht="16.75" customHeight="1">
+      <c r="A5" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="67" t="s">
+      <c r="D5" s="76"/>
+      <c r="E5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="71" t="s">
+      <c r="F5" s="74"/>
+      <c r="G5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="70"/>
+      <c r="H5" s="77"/>
     </row>
-    <row r="6" spans="2:9" ht="16.75" customHeight="1">
-      <c r="B6" s="66" t="s">
+    <row r="6" spans="1:8" ht="16.75" customHeight="1">
+      <c r="A6" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="2:9" ht="16.75" customHeight="1">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:8" ht="16.75" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="B7" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59" t="s">
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="64">
+      <c r="F7" s="67"/>
+      <c r="G7" s="71">
         <v>41828</v>
       </c>
-      <c r="I7" s="62"/>
+      <c r="H7" s="69"/>
     </row>
-    <row r="8" spans="2:9" ht="16.75" customHeight="1">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:8" ht="16.75" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59" t="s">
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61" t="s">
+      <c r="F8" s="67"/>
+      <c r="G8" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="62"/>
+      <c r="H8" s="69"/>
     </row>
-    <row r="9" spans="2:9" ht="16.75" customHeight="1">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:8" ht="16.75" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="B9" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="58"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="65"/>
     </row>
-    <row r="10" spans="2:9" ht="16.75" customHeight="1">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:8" ht="16.75" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="B10" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
     </row>
-    <row r="11" spans="2:9" ht="20" customHeight="1">
-      <c r="B11" s="55" t="s">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="A11" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="3" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="20" customHeight="1">
-      <c r="B12" s="4">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="A12" s="4">
         <v>1</v>
       </c>
-      <c r="C12" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="5" t="s">
+      <c r="B12" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="20" customHeight="1">
-      <c r="B13" s="4">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="5" t="s">
+      <c r="B13" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="20" customHeight="1">
-      <c r="B14" s="4">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="C14" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="5" t="s">
+      <c r="B14" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="20" customHeight="1">
-      <c r="B15" s="4">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="C15" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="5" t="s">
-        <v>75</v>
+      <c r="B15" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="20" customHeight="1">
-      <c r="B16" s="4">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="A16" s="4">
         <v>5</v>
       </c>
-      <c r="C16" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="5" t="s">
+      <c r="B16" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="20" customHeight="1">
-      <c r="B17" s="4">
+    <row r="17" spans="1:8" ht="20" customHeight="1">
+      <c r="A17" s="4">
         <v>6</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="5" t="s">
-        <v>77</v>
+      <c r="B17" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="20" customHeight="1">
-      <c r="B18" s="4">
+    <row r="18" spans="1:8" ht="20" customHeight="1">
+      <c r="A18" s="4">
         <v>7</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="5"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="2:9" ht="20" customHeight="1">
-      <c r="B19" s="4">
+    <row r="19" spans="1:8" ht="20" customHeight="1">
+      <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="5"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="2:9" ht="20" customHeight="1">
-      <c r="B20" s="4">
+    <row r="20" spans="1:8" ht="20" customHeight="1">
+      <c r="A20" s="4">
         <v>9</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="5"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:9" ht="20" customHeight="1">
-      <c r="B21" s="55" t="s">
+    <row r="21" spans="1:8" ht="20" customHeight="1">
+      <c r="A21" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="2" t="s">
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="20" customHeight="1">
-      <c r="B22" s="47">
+    <row r="22" spans="1:8" ht="20" customHeight="1">
+      <c r="A22" s="54">
         <v>1</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="B22" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="7" t="s">
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="H22" s="49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="20" customHeight="1">
-      <c r="B23" s="47"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="7" t="s">
+    <row r="23" spans="1:8" ht="20" customHeight="1">
+      <c r="A23" s="54"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="42"/>
+      <c r="H23" s="49"/>
     </row>
-    <row r="24" spans="2:9" ht="20" customHeight="1">
-      <c r="B24" s="47"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="7" t="s">
+    <row r="24" spans="1:8" ht="20" customHeight="1">
+      <c r="A24" s="54"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="42"/>
+      <c r="H24" s="49"/>
     </row>
-    <row r="25" spans="2:9" ht="20" customHeight="1">
-      <c r="B25" s="6">
+    <row r="25" spans="1:8" ht="20" customHeight="1">
+      <c r="A25" s="6">
         <v>2</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="B25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="7" t="s">
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="20" customHeight="1">
-      <c r="B26" s="6">
+    <row r="26" spans="1:8" ht="20" customHeight="1">
+      <c r="A26" s="6">
         <v>5</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="B26" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="7" t="s">
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="H26" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="20" customHeight="1">
-      <c r="B27" s="6">
+    <row r="27" spans="1:8" ht="20" customHeight="1">
+      <c r="A27" s="6">
         <v>6</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="B27" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="7" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="20" customHeight="1">
-      <c r="B28" s="6">
+    <row r="28" spans="1:8" ht="20" customHeight="1">
+      <c r="A28" s="6">
         <v>7</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="B28" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="7" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="20" customHeight="1">
-      <c r="B29" s="6">
+    <row r="29" spans="1:8" ht="20" customHeight="1">
+      <c r="A29" s="6">
         <v>8</v>
       </c>
-      <c r="C29" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="7" t="s">
+      <c r="B29" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="C22:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="B22:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H20">
       <formula1>"通过,不通过,完善后通过,延后讨论"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:H29">
       <formula1>"已解决,转入问题日志,接受改善建议"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15102,95 +15336,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="A1:H28"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11" ht="25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="67" t="s">
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="76"/>
+      <c r="E3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="70" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="70"/>
+      <c r="H3" s="77"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="67" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="71" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="70"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -15199,19 +15433,19 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="64">
+      <c r="F6" s="67"/>
+      <c r="G6" s="71">
         <v>41829</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="69"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -15220,19 +15454,19 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59" t="s">
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61" t="s">
+      <c r="F7" s="67"/>
+      <c r="G7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62"/>
+      <c r="H7" s="69"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -15241,15 +15475,15 @@
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="58"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="65"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -15258,29 +15492,29 @@
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="3" t="s">
         <v>33</v>
       </c>
@@ -15289,18 +15523,18 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="4">
+      <c r="A11" s="44">
         <v>1</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="5" t="s">
+      <c r="B11" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="40" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="9"/>
@@ -15308,18 +15542,18 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="4">
+      <c r="A12" s="44">
         <v>2</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="5" t="s">
+      <c r="B12" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="40" t="s">
         <v>34</v>
       </c>
       <c r="I12" s="9"/>
@@ -15327,18 +15561,18 @@
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="4">
+      <c r="A13" s="44">
         <v>3</v>
       </c>
-      <c r="B13" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="5" t="s">
+      <c r="B13" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="40" t="s">
         <v>34</v>
       </c>
       <c r="I13" s="9"/>
@@ -15346,105 +15580,105 @@
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="4">
+      <c r="A14" s="44">
         <v>4</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="5"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="4">
+      <c r="A15" s="44">
         <v>5</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="5"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="4">
+      <c r="A16" s="44">
         <v>6</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="5"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="4">
+      <c r="A17" s="44">
         <v>7</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="5"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="4">
+      <c r="A18" s="44">
         <v>8</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="5"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="4">
+      <c r="A19" s="44">
         <v>9</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="5"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="2" t="s">
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="45" t="s">
         <v>36</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -15454,154 +15688,170 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="6">
+    <row r="21" spans="1:11" ht="26">
+      <c r="A21" s="42">
         <v>1</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="8"/>
+      <c r="B21" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="6">
+    <row r="22" spans="1:11" ht="26">
+      <c r="A22" s="42">
         <v>2</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="8"/>
+      <c r="B22" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="6">
+      <c r="A23" s="42">
         <v>3</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="7" t="s">
+      <c r="B23" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="6">
+      <c r="A24" s="42">
         <v>4</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="8"/>
+      <c r="B24" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="6">
+      <c r="A25" s="42">
         <v>5</v>
       </c>
-      <c r="B25" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="8"/>
+      <c r="B25" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="6">
+      <c r="A26" s="42">
         <v>6</v>
       </c>
-      <c r="B26" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="7" t="s">
+      <c r="B26" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="6">
+      <c r="A27" s="42">
         <v>7</v>
       </c>
-      <c r="B27" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="8"/>
+      <c r="B27" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="6">
+    <row r="28" spans="1:11" ht="26">
+      <c r="A28" s="42">
         <v>8</v>
       </c>
-      <c r="B28" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="8"/>
+      <c r="B28" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -15673,158 +15923,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="A1:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:8" ht="25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="76"/>
+      <c r="E3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="70" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="70"/>
+      <c r="H3" s="77"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="67" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="71" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="70"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="64">
+      <c r="F6" s="67"/>
+      <c r="G6" s="71">
         <v>41830</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="69"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59" t="s">
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61" t="s">
+      <c r="F7" s="67"/>
+      <c r="G7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="58"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="65"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="3" t="s">
         <v>33</v>
       </c>
@@ -15833,14 +16083,14 @@
       <c r="A11" s="39">
         <v>1</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="B11" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
       <c r="H11" s="34" t="s">
         <v>34</v>
       </c>
@@ -15849,30 +16099,30 @@
       <c r="A12" s="39">
         <v>2</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="B12" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="34" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="39">
         <v>3</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="B13" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="34" t="s">
         <v>34</v>
       </c>
@@ -15881,14 +16131,14 @@
       <c r="A14" s="39">
         <v>4</v>
       </c>
-      <c r="B14" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
+      <c r="B14" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="34" t="s">
         <v>34</v>
       </c>
@@ -15897,46 +16147,46 @@
       <c r="A15" s="39">
         <v>5</v>
       </c>
-      <c r="B15" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
+      <c r="B15" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="34" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="39">
         <v>6</v>
       </c>
-      <c r="B16" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
+      <c r="B16" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="34" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="39">
         <v>7</v>
       </c>
-      <c r="B17" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="34" t="s">
         <v>34</v>
       </c>
@@ -15945,35 +16195,35 @@
       <c r="A18" s="39">
         <v>8</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="39">
         <v>9</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="37" t="s">
         <v>36</v>
       </c>
@@ -15981,133 +16231,149 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="26">
       <c r="A21" s="36">
         <v>1</v>
       </c>
-      <c r="B21" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="73"/>
+      <c r="B21" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
       <c r="G21" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="26">
       <c r="A22" s="36">
         <v>2</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
+      <c r="B22" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="36">
         <v>3</v>
       </c>
-      <c r="B23" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
+      <c r="B23" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="36">
         <v>4</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
+      <c r="B24" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="26">
       <c r="A25" s="36">
         <v>5</v>
       </c>
-      <c r="B25" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
+      <c r="B25" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="36">
         <v>6</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
+      <c r="B26" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="36">
         <v>7</v>
       </c>
-      <c r="B27" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
+      <c r="B27" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="26">
       <c r="A28" s="36">
         <v>8</v>
       </c>
-      <c r="B28" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
+      <c r="B28" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="81"/>
       <c r="G28" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -16170,4 +16436,514 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25">
+      <c r="A1" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="76"/>
+      <c r="E3" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="74"/>
+      <c r="G3" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="77"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="74"/>
+      <c r="G4" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="77"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="G6" s="71">
+        <v>41831</v>
+      </c>
+      <c r="H6" s="69"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="69"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="65"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="44">
+        <v>1</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="44">
+        <v>2</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="44">
+        <v>3</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="44">
+        <v>4</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="44">
+        <v>5</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="44">
+        <v>6</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="44">
+        <v>7</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="44">
+        <v>8</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="44">
+        <v>9</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="42">
+        <v>1</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="42">
+        <v>2</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="42">
+        <v>3</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="42">
+        <v>4</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="26">
+      <c r="A25" s="42">
+        <v>5</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="26">
+      <c r="A26" s="42">
+        <v>6</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="42">
+        <v>7</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="26">
+      <c r="A28" s="42">
+        <v>8</v>
+      </c>
+      <c r="B28" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11:H19">
+      <formula1>"通过,不通过,完善后通过,延后讨论"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21:H28">
+      <formula1>"已解决,转入问题日志,接受改善建议"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/doc/会议纪要/会议纪要.xlsx
+++ b/doc/会议纪要/会议纪要.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19830" windowHeight="9990" activeTab="1"/>
+    <workbookView windowWidth="19830" windowHeight="9990" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="会议纪要7月12日" sheetId="7" r:id="rId7"/>
     <sheet name="会议纪要7月13日" sheetId="8" r:id="rId8"/>
     <sheet name="会议纪要7月14日" sheetId="9" r:id="rId9"/>
+    <sheet name="会议纪要7月15日" sheetId="10" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="_ML1">[1]分类数据!$C$3</definedName>
@@ -343,8 +344,46 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>caowei</author>
+  </authors>
+  <commentList>
+    <comment ref="H10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">记录人负责记录会议议题讨论的结论：
+通过、不通过、完善后通过，延后讨论</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">记录人负责对会议决议进行跟踪，并标识跟踪状态：
+已解决、转入问题日志、接受改善建议</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -437,6 +476,12 @@
   </si>
   <si>
     <t>2014.7.14</t>
+  </si>
+  <si>
+    <t>v8.0</t>
+  </si>
+  <si>
+    <t>2014.7.15</t>
   </si>
   <si>
     <t>项目描述</t>
@@ -809,21 +854,51 @@
   <si>
     <t>将界面修改成JSP界面并设计数据统计界面</t>
   </si>
+  <si>
+    <t>对之前阶段总结</t>
+  </si>
+  <si>
+    <t>讨论下一阶段的实施方案</t>
+  </si>
+  <si>
+    <t>进行分工</t>
+  </si>
+  <si>
+    <t>简短讨论，再次分工</t>
+  </si>
+  <si>
+    <t>配置struts 2 pakage 和页面链接（客户管理，用户管理）</t>
+  </si>
+  <si>
+    <t>配置struts 2 pakage 和页面链接（统计报表，基础数据）</t>
+  </si>
+  <si>
+    <t>配置struts 2 pakage 和页面链接（营销管理，服务管理）</t>
+  </si>
+  <si>
+    <t>修改页面</t>
+  </si>
+  <si>
+    <t>检查、测试网站页面</t>
+  </si>
+  <si>
+    <t>修改文档</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="mmm"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="mmm"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -969,13 +1044,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="38"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
       <family val="38"/>
@@ -989,26 +1057,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <family val="38"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="22"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="38"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="黑体"/>
-      <family val="54"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1025,6 +1075,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="38"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="38"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <family val="7"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="黑体"/>
+      <family val="54"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="38"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color indexed="36"/>
@@ -1036,14 +1119,6 @@
       <u/>
       <sz val="12"/>
       <color indexed="20"/>
-      <name val="宋体"/>
-      <family val="7"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
       <name val="宋体"/>
       <family val="7"/>
       <charset val="134"/>
@@ -1160,92 +1235,92 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1376,16 +1451,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1400,7 +1475,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="21" applyAlignment="1">
@@ -1445,10 +1520,10 @@
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="New Times Roman" xfId="1"/>
-    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
-    <cellStyle name="桁区切り [0.00]_(D)日程計画" xfId="3"/>
-    <cellStyle name="ColLevel_0" xfId="4"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="桁区切り [0.00]_(D)日程計画" xfId="2"/>
+    <cellStyle name="ColLevel_0" xfId="3"/>
+    <cellStyle name="New Times Roman" xfId="4"/>
     <cellStyle name="RowLevel_0" xfId="5"/>
     <cellStyle name="货币" xfId="6" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
@@ -1462,8 +1537,8 @@
     <cellStyle name="Normal_#10-Headcount" xfId="15"/>
     <cellStyle name="標準_(D)日程計画" xfId="16"/>
     <cellStyle name="表示済みのハイパーリンク_02_1st_2ndOTP対応機能一覧_一応完成版" xfId="17"/>
-    <cellStyle name="常规_G-OT0122 Rule or Guideline Template" xfId="18"/>
-    <cellStyle name="段落标题1" xfId="19"/>
+    <cellStyle name="段落标题1" xfId="18"/>
+    <cellStyle name="常规_G-OT0122 Rule or Guideline Template" xfId="19"/>
     <cellStyle name="常规_NSFT-PT029-软件开发计划模板" xfId="20"/>
     <cellStyle name="常规_封页" xfId="21"/>
     <cellStyle name="超链接" xfId="22" builtinId="8"/>
@@ -1471,8 +1546,8 @@
     <cellStyle name="访问过的超链接" xfId="24"/>
     <cellStyle name="桁区切り_(D)日程計画" xfId="25"/>
     <cellStyle name="普通" xfId="26"/>
-    <cellStyle name="千位[0]_laroux" xfId="27"/>
-    <cellStyle name="千位_laroux" xfId="28"/>
+    <cellStyle name="千位_laroux" xfId="27"/>
+    <cellStyle name="千位[0]_laroux" xfId="28"/>
     <cellStyle name="通貨 [0.00]_(D)日程計画" xfId="29"/>
     <cellStyle name="通貨_(D)日程計画" xfId="30"/>
   </cellStyles>
@@ -2313,13 +2388,497 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" ht="27" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14">
+        <v>41835</v>
+      </c>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="19">
+        <v>1</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="19">
+        <v>2</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="19">
+        <v>3</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="19">
+        <v>4</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="19">
+        <v>5</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="19">
+        <v>6</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="19">
+        <v>7</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="19">
+        <v>8</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="19">
+        <v>9</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="29">
+        <v>1</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="29">
+        <v>2</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="29">
+        <v>3</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="29">
+        <v>4</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="29">
+        <v>5</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="29">
+        <v>6</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="29">
+        <v>7</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11:H19">
+      <formula1>"通过,不通过,完善后通过,延后讨论"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21:H27">
+      <formula1>"已解决,转入问题日志,接受改善建议"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2525,7 +3084,25 @@
       </c>
       <c r="H11" s="46"/>
     </row>
-    <row r="12" ht="30" customHeight="1"/>
+    <row r="12" ht="30" customHeight="1" spans="2:8">
+      <c r="B12" s="46">
+        <v>9</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="46"/>
+    </row>
     <row r="13" ht="30" customHeight="1"/>
     <row r="14" ht="30" customHeight="1"/>
     <row r="15" ht="30" customHeight="1"/>
@@ -2540,7 +3117,7 @@
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G8 G9:G11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G4:G8 G9:G11">
       <formula1>"新建,增加,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2587,7 +3164,7 @@
     </row>
     <row r="3" ht="16.75" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2599,33 +3176,33 @@
     </row>
     <row r="4" ht="16.75" customHeight="1" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" ht="16.75" customHeight="1" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="7" t="s">
@@ -2635,7 +3212,7 @@
     </row>
     <row r="6" ht="16.75" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2647,15 +3224,15 @@
     </row>
     <row r="7" ht="16.75" customHeight="1" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="14">
@@ -2665,15 +3242,15 @@
     </row>
     <row r="8" ht="16.75" customHeight="1" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16" t="s">
@@ -2683,7 +3260,7 @@
     </row>
     <row r="9" ht="16.75" customHeight="1" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -2697,10 +3274,10 @@
     </row>
     <row r="10" ht="16.75" customHeight="1" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -2711,7 +3288,7 @@
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:8">
       <c r="A11" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -2720,7 +3297,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:8">
@@ -2728,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -2736,7 +3313,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:8">
@@ -2744,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -2752,7 +3329,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:8">
@@ -2760,7 +3337,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -2768,7 +3345,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:8">
@@ -2776,7 +3353,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -2784,7 +3361,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:8">
@@ -2792,7 +3369,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -2800,7 +3377,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
@@ -2808,7 +3385,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -2816,7 +3393,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
       <c r="H17" s="25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:8">
@@ -2857,7 +3434,7 @@
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:8">
       <c r="A21" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -2865,10 +3442,10 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:8">
@@ -2876,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -2886,7 +3463,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:8">
@@ -2897,7 +3474,7 @@
       <c r="E23" s="30"/>
       <c r="F23" s="31"/>
       <c r="G23" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H23" s="25"/>
     </row>
@@ -2909,7 +3486,7 @@
       <c r="E24" s="30"/>
       <c r="F24" s="31"/>
       <c r="G24" s="32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H24" s="25"/>
     </row>
@@ -2918,17 +3495,17 @@
         <v>2</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
       <c r="G25" s="32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:8">
@@ -2936,17 +3513,17 @@
         <v>5</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
       <c r="G26" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="33" t="s">
         <v>70</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:8">
@@ -2954,17 +3531,17 @@
         <v>6</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="G27" s="32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:8">
@@ -2972,17 +3549,17 @@
         <v>7</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="G28" s="32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:8">
@@ -2990,7 +3567,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
@@ -3000,7 +3577,7 @@
         <v>18</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3089,7 +3666,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3104,19 +3681,19 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="39"/>
@@ -3125,15 +3702,15 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="7" t="s">
@@ -3146,7 +3723,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3161,15 +3738,15 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="14">
@@ -3182,15 +3759,15 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="16" t="s">
@@ -3203,7 +3780,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>18</v>
@@ -3220,10 +3797,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -3237,7 +3814,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -3246,7 +3823,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
@@ -3257,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -3265,7 +3842,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
       <c r="H11" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
@@ -3276,7 +3853,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -3284,7 +3861,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
@@ -3295,7 +3872,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -3303,7 +3880,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
@@ -3401,7 +3978,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -3409,10 +3986,10 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
@@ -3423,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -3433,7 +4010,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I21" s="39"/>
       <c r="J21" s="39"/>
@@ -3444,17 +4021,17 @@
         <v>2</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="31"/>
       <c r="G22" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
@@ -3465,17 +4042,17 @@
         <v>3</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
       <c r="G23" s="32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="39"/>
@@ -3486,17 +4063,17 @@
         <v>4</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
       <c r="G24" s="32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I24" s="39"/>
       <c r="J24" s="39"/>
@@ -3507,7 +4084,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -3517,7 +4094,7 @@
         <v>18</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
@@ -3528,17 +4105,17 @@
         <v>6</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="22"/>
       <c r="G26" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="33" t="s">
         <v>70</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>68</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="39"/>
@@ -3549,17 +4126,17 @@
         <v>7</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="G27" s="32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
@@ -3570,17 +4147,17 @@
         <v>8</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="37"/>
       <c r="G28" s="32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
@@ -3669,7 +4246,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3681,33 +4258,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="7" t="s">
@@ -3717,7 +4294,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3729,15 +4306,15 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="14">
@@ -3747,15 +4324,15 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="16" t="s">
@@ -3765,7 +4342,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>18</v>
@@ -3779,10 +4356,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -3793,7 +4370,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -3802,7 +4379,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3810,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -3818,7 +4395,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
       <c r="H11" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3826,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -3834,7 +4411,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3842,7 +4419,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -3850,7 +4427,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3858,7 +4435,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -3866,7 +4443,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3874,7 +4451,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -3882,7 +4459,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3890,7 +4467,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -3898,7 +4475,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3906,7 +4483,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -3914,7 +4491,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
       <c r="H17" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3943,7 +4520,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -3951,10 +4528,10 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="24" spans="1:8">
@@ -3962,17 +4539,17 @@
         <v>1</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="31"/>
       <c r="G21" s="32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="24" spans="1:8">
@@ -3980,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -3990,7 +4567,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" ht="24" spans="1:8">
@@ -3998,17 +4575,17 @@
         <v>3</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
       <c r="G23" s="32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4016,17 +4593,17 @@
         <v>4</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
       <c r="G24" s="32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" ht="24" spans="1:8">
@@ -4034,17 +4611,17 @@
         <v>5</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
       <c r="G25" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="33" t="s">
         <v>65</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4052,17 +4629,17 @@
         <v>6</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="22"/>
       <c r="G26" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="33" t="s">
         <v>70</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4070,17 +4647,17 @@
         <v>7</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="G27" s="32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" ht="24" spans="1:8">
@@ -4088,7 +4665,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
@@ -4098,7 +4675,7 @@
         <v>18</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4184,7 +4761,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4196,33 +4773,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="7" t="s">
@@ -4232,7 +4809,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4244,15 +4821,15 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="14">
@@ -4262,15 +4839,15 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="16" t="s">
@@ -4280,7 +4857,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>18</v>
@@ -4294,10 +4871,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -4308,7 +4885,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -4317,7 +4894,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4325,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -4333,7 +4910,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
       <c r="H11" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4341,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -4349,7 +4926,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4357,7 +4934,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -4365,7 +4942,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4373,7 +4950,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -4381,7 +4958,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4389,7 +4966,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -4397,7 +4974,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4450,7 +5027,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -4458,10 +5035,10 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4469,17 +5046,17 @@
         <v>1</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="31"/>
       <c r="G21" s="32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4487,17 +5064,17 @@
         <v>2</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="31"/>
       <c r="G22" s="32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4505,17 +5082,17 @@
         <v>3</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
       <c r="G23" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="33" t="s">
         <v>70</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4523,17 +5100,17 @@
         <v>4</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
       <c r="G24" s="32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" ht="24" spans="1:8">
@@ -4541,17 +5118,17 @@
         <v>5</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
       <c r="G25" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="33" t="s">
         <v>65</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" ht="24" spans="1:8">
@@ -4559,17 +5136,17 @@
         <v>6</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="22"/>
       <c r="G26" s="32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4577,7 +5154,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -4587,7 +5164,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" ht="24" spans="1:8">
@@ -4595,7 +5172,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
@@ -4605,7 +5182,7 @@
         <v>18</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4691,7 +5268,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4703,33 +5280,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="7" t="s">
@@ -4739,7 +5316,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4751,15 +5328,15 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="14">
@@ -4769,15 +5346,15 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="16" t="s">
@@ -4787,7 +5364,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>18</v>
@@ -4801,10 +5378,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -4815,7 +5392,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -4824,7 +5401,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4832,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -4840,7 +5417,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
       <c r="H11" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4848,7 +5425,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -4856,7 +5433,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4864,7 +5441,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -4872,7 +5449,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4880,7 +5457,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -4888,7 +5465,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4896,7 +5473,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -4904,7 +5481,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4912,7 +5489,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -4920,7 +5497,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4961,7 +5538,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -4969,10 +5546,10 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4980,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -4990,7 +5567,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4998,17 +5575,17 @@
         <v>2</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="31"/>
       <c r="G22" s="32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5016,17 +5593,17 @@
         <v>3</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
       <c r="G23" s="32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5034,7 +5611,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -5044,7 +5621,7 @@
         <v>18</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5052,17 +5629,17 @@
         <v>5</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
       <c r="G25" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5070,17 +5647,17 @@
         <v>6</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="22"/>
       <c r="G26" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="33" t="s">
         <v>70</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5088,17 +5665,17 @@
         <v>7</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="G27" s="32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5106,17 +5683,17 @@
         <v>8</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="37"/>
       <c r="G28" s="32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5202,7 +5779,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5214,33 +5791,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="7" t="s">
@@ -5250,7 +5827,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5262,15 +5839,15 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="14">
@@ -5280,15 +5857,15 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="16" t="s">
@@ -5298,7 +5875,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>18</v>
@@ -5312,10 +5889,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -5326,7 +5903,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -5335,7 +5912,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5343,7 +5920,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -5351,7 +5928,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
       <c r="H11" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5359,7 +5936,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -5367,7 +5944,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5375,7 +5952,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -5383,7 +5960,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5460,7 +6037,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -5468,10 +6045,10 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5479,17 +6056,17 @@
         <v>1</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="31"/>
       <c r="G21" s="32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5497,17 +6074,17 @@
         <v>2</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="31"/>
       <c r="G22" s="32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5515,17 +6092,17 @@
         <v>3</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
       <c r="G23" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5533,17 +6110,17 @@
         <v>4</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
       <c r="G24" s="32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5551,7 +6128,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -5561,7 +6138,7 @@
         <v>18</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5569,7 +6146,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -5579,7 +6156,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5587,17 +6164,17 @@
         <v>7</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="G27" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="33" t="s">
         <v>70</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5605,17 +6182,17 @@
         <v>8</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="37"/>
       <c r="G28" s="32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5682,7 +6259,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:F27"/>
+      <selection activeCell="I29" sqref="A1:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -5701,7 +6278,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5713,33 +6290,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="7" t="s">
@@ -5749,7 +6326,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5761,15 +6338,15 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="14">
@@ -5779,15 +6356,15 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="16" t="s">
@@ -5797,7 +6374,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>18</v>
@@ -5811,10 +6388,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -5825,7 +6402,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -5834,7 +6411,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5842,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -5850,7 +6427,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
       <c r="H11" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5858,7 +6435,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -5866,7 +6443,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5874,7 +6451,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -5882,7 +6459,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5890,7 +6467,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -5898,7 +6475,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5963,7 +6540,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -5971,10 +6548,10 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5982,17 +6559,17 @@
         <v>1</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="31"/>
       <c r="G21" s="32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6000,17 +6577,17 @@
         <v>2</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="31"/>
       <c r="G22" s="32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6018,17 +6595,17 @@
         <v>3</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
       <c r="G23" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6036,17 +6613,17 @@
         <v>4</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
       <c r="G24" s="32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6054,7 +6631,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -6064,7 +6641,7 @@
         <v>18</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6072,7 +6649,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -6082,7 +6659,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6090,17 +6667,17 @@
         <v>7</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="G27" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="33" t="s">
         <v>70</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6108,17 +6685,17 @@
         <v>8</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="37"/>
       <c r="G28" s="32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/doc/会议纪要/会议纪要.xlsx
+++ b/doc/会议纪要/会议纪要.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19830" windowHeight="9990" firstSheet="14" activeTab="18"/>
+    <workbookView windowWidth="19830" windowHeight="9990" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -734,7 +734,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -833,6 +833,60 @@
   </si>
   <si>
     <t>2014.7.15</t>
+  </si>
+  <si>
+    <t>v9.0</t>
+  </si>
+  <si>
+    <t>2014.7.16</t>
+  </si>
+  <si>
+    <t>v10.0</t>
+  </si>
+  <si>
+    <t>2014.7.18</t>
+  </si>
+  <si>
+    <t>v11.0</t>
+  </si>
+  <si>
+    <t>2014.7.19</t>
+  </si>
+  <si>
+    <t>v12.0</t>
+  </si>
+  <si>
+    <t>2014.7.20</t>
+  </si>
+  <si>
+    <t>v13.0</t>
+  </si>
+  <si>
+    <t>2014.7.21</t>
+  </si>
+  <si>
+    <t>v14.0</t>
+  </si>
+  <si>
+    <t>2014.7.22</t>
+  </si>
+  <si>
+    <t>v15.0</t>
+  </si>
+  <si>
+    <t>2014.7.23</t>
+  </si>
+  <si>
+    <t>v16.0</t>
+  </si>
+  <si>
+    <t>2014.7.24</t>
+  </si>
+  <si>
+    <t>v17.0</t>
+  </si>
+  <si>
+    <t>2014.7.25</t>
   </si>
   <si>
     <t>项目描述</t>
@@ -1320,15 +1374,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="mmm"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1473,67 +1527,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <family val="38"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="22"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="38"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helvetica"/>
-      <family val="38"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="22"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <family val="38"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="38"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="36"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="38"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="黑体"/>
-      <family val="54"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
-      <color indexed="12"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <family val="7"/>
       <charset val="134"/>
@@ -1547,10 +1543,68 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color indexed="36"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="38"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
-      <color indexed="20"/>
+      <name val="Arial"/>
+      <family val="38"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="38"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica"/>
+      <family val="38"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="38"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="22"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="38"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="22"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <family val="7"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="黑体"/>
+      <family val="54"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1665,19 +1719,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1689,56 +1743,56 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="15" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1753,10 +1807,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1890,16 +1944,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1914,7 +1968,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="21" applyAlignment="1">
@@ -1959,25 +2013,25 @@
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り [0.00]_(D)日程計画" xfId="1"/>
+    <cellStyle name="New Times Roman" xfId="1"/>
     <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
-    <cellStyle name="ColLevel_0" xfId="3"/>
-    <cellStyle name="New Times Roman" xfId="4"/>
+    <cellStyle name="桁区切り [0.00]_(D)日程計画" xfId="3"/>
+    <cellStyle name="ColLevel_0" xfId="4"/>
     <cellStyle name="RowLevel_0" xfId="5"/>
     <cellStyle name="货币" xfId="6" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
     <cellStyle name="百分比" xfId="8" builtinId="5"/>
-    <cellStyle name="Calc Currency (0)" xfId="9"/>
+    <cellStyle name="_ET_STYLE_NoName_00_" xfId="9"/>
     <cellStyle name="货币[0]" xfId="10" builtinId="7"/>
-    <cellStyle name="_ET_STYLE_NoName_00_" xfId="11"/>
+    <cellStyle name="Calc Currency (0)" xfId="11"/>
     <cellStyle name="Date" xfId="12"/>
     <cellStyle name="Header1" xfId="13"/>
     <cellStyle name="Header2" xfId="14"/>
     <cellStyle name="Normal_#10-Headcount" xfId="15"/>
     <cellStyle name="標準_(D)日程計画" xfId="16"/>
     <cellStyle name="表示済みのハイパーリンク_02_1st_2ndOTP対応機能一覧_一応完成版" xfId="17"/>
-    <cellStyle name="段落标题1" xfId="18"/>
-    <cellStyle name="常规_G-OT0122 Rule or Guideline Template" xfId="19"/>
+    <cellStyle name="常规_G-OT0122 Rule or Guideline Template" xfId="18"/>
+    <cellStyle name="段落标题1" xfId="19"/>
     <cellStyle name="常规_NSFT-PT029-软件开发计划模板" xfId="20"/>
     <cellStyle name="常规_封页" xfId="21"/>
     <cellStyle name="超链接" xfId="22" builtinId="8"/>
@@ -1986,8 +2040,8 @@
     <cellStyle name="桁区切り_(D)日程計画" xfId="25"/>
     <cellStyle name="普通" xfId="26"/>
     <cellStyle name="普通 2" xfId="27"/>
-    <cellStyle name="千位_laroux" xfId="28"/>
-    <cellStyle name="千位[0]_laroux" xfId="29"/>
+    <cellStyle name="千位[0]_laroux" xfId="28"/>
+    <cellStyle name="千位_laroux" xfId="29"/>
     <cellStyle name="通貨 [0.00]_(D)日程計画" xfId="30"/>
     <cellStyle name="通貨_(D)日程計画" xfId="31"/>
   </cellStyles>
@@ -2853,7 +2907,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="30" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -2865,33 +2919,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="31" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="32" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="31" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="34" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="31" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="31" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="35" t="s">
@@ -2901,7 +2955,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="30" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -2913,15 +2967,15 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7">
@@ -2931,15 +2985,15 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="9" t="s">
@@ -2949,7 +3003,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -2963,10 +3017,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2977,7 +3031,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2986,7 +3040,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2994,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -3002,7 +3056,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3010,7 +3064,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -3018,7 +3072,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3026,7 +3080,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -3034,7 +3088,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3042,7 +3096,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -3050,7 +3104,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3115,7 +3169,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -3123,10 +3177,10 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" ht="24" spans="1:8">
@@ -3134,17 +3188,17 @@
         <v>1</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="24"/>
       <c r="G21" s="25" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="24" spans="1:8">
@@ -3152,17 +3206,17 @@
         <v>2</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" ht="24" spans="1:8">
@@ -3170,17 +3224,17 @@
         <v>3</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
       <c r="G23" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3188,17 +3242,17 @@
         <v>4</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
       <c r="G24" s="25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3206,7 +3260,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -3216,7 +3270,7 @@
         <v>18</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3224,7 +3278,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -3234,7 +3288,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3242,17 +3296,17 @@
         <v>7</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3337,7 +3391,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="30" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -3349,33 +3403,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="31" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="32" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="31" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="34" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="31" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="31" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="35" t="s">
@@ -3385,7 +3439,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="30" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -3397,15 +3451,15 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7">
@@ -3415,15 +3469,15 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="9" t="s">
@@ -3433,7 +3487,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -3447,10 +3501,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3461,7 +3515,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3470,7 +3524,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3478,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -3486,7 +3540,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3494,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -3502,7 +3556,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3591,7 +3645,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -3599,10 +3653,10 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3772,15 +3826,15 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="7">
@@ -3790,15 +3844,15 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="9" t="s">
@@ -3808,7 +3862,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -3822,10 +3876,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -3836,7 +3890,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3845,7 +3899,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3853,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -3861,7 +3915,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3962,7 +4016,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3970,10 +4024,10 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:8">
@@ -3981,17 +4035,17 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:8">
@@ -3999,17 +4053,17 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" ht="24" spans="1:8">
@@ -4017,17 +4071,17 @@
         <v>3</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
       <c r="G18" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="24" spans="1:8">
@@ -4035,17 +4089,17 @@
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" ht="24" spans="1:8">
@@ -4053,7 +4107,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -4063,7 +4117,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" ht="24" spans="1:8">
@@ -4071,7 +4125,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -4081,7 +4135,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="24" spans="1:8">
@@ -4089,17 +4143,17 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" ht="24" spans="1:8">
@@ -4107,17 +4161,17 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4180,15 +4234,15 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="7">
@@ -4198,15 +4252,15 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="9" t="s">
@@ -4216,7 +4270,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -4230,10 +4284,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4244,7 +4298,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4253,7 +4307,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4261,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -4269,7 +4323,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4277,7 +4331,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -4285,7 +4339,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4374,7 +4428,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -4382,10 +4436,10 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:8">
@@ -4393,17 +4447,17 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:8">
@@ -4411,17 +4465,17 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" ht="24" spans="1:8">
@@ -4429,17 +4483,17 @@
         <v>3</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
       <c r="G18" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="24" spans="1:8">
@@ -4447,17 +4501,17 @@
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" ht="24" spans="1:8">
@@ -4465,7 +4519,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -4475,7 +4529,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" ht="24" spans="1:8">
@@ -4483,7 +4537,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -4493,7 +4547,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="24" spans="1:8">
@@ -4501,17 +4555,17 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" ht="24" spans="1:8">
@@ -4519,17 +4573,17 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4592,15 +4646,15 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="7">
@@ -4610,15 +4664,15 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="9" t="s">
@@ -4628,7 +4682,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -4642,10 +4696,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4656,7 +4710,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4665,7 +4719,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4673,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -4681,7 +4735,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4689,7 +4743,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -4697,7 +4751,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4786,7 +4840,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -4794,10 +4848,10 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:8">
@@ -4805,17 +4859,17 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:8">
@@ -4823,17 +4877,17 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" ht="24" spans="1:8">
@@ -4841,17 +4895,17 @@
         <v>3</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
       <c r="G18" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="24" spans="1:8">
@@ -4859,17 +4913,17 @@
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" ht="24" spans="1:8">
@@ -4877,7 +4931,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -4887,7 +4941,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" ht="24" spans="1:8">
@@ -4895,7 +4949,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -4905,7 +4959,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="24" spans="1:8">
@@ -4913,17 +4967,17 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" ht="24" spans="1:8">
@@ -4931,17 +4985,17 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5004,15 +5058,15 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="7">
@@ -5022,15 +5076,15 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="9" t="s">
@@ -5040,7 +5094,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -5054,10 +5108,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -5068,7 +5122,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5077,7 +5131,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5085,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -5093,7 +5147,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5101,7 +5155,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -5109,7 +5163,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5198,7 +5252,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -5206,10 +5260,10 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:8">
@@ -5217,17 +5271,17 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:8">
@@ -5235,17 +5289,17 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" ht="24" spans="1:8">
@@ -5253,17 +5307,17 @@
         <v>3</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
       <c r="G18" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="24" spans="1:8">
@@ -5271,17 +5325,17 @@
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" ht="24" spans="1:8">
@@ -5289,7 +5343,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -5299,7 +5353,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" ht="24" spans="1:8">
@@ -5307,7 +5361,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -5317,7 +5371,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="24" spans="1:8">
@@ -5325,17 +5379,17 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" ht="24" spans="1:8">
@@ -5343,17 +5397,17 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5416,15 +5470,15 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="7">
@@ -5434,15 +5488,15 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="9" t="s">
@@ -5452,7 +5506,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -5466,10 +5520,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -5480,7 +5534,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5489,7 +5543,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5497,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -5505,7 +5559,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5513,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -5521,7 +5575,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5529,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -5537,7 +5591,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5614,7 +5668,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -5622,10 +5676,10 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:8">
@@ -5633,17 +5687,17 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:8">
@@ -5651,17 +5705,17 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" ht="24" spans="1:8">
@@ -5669,17 +5723,17 @@
         <v>3</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
       <c r="G18" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="24" spans="1:8">
@@ -5687,17 +5741,17 @@
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" ht="24" spans="1:8">
@@ -5705,7 +5759,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -5715,7 +5769,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" ht="24" spans="1:8">
@@ -5723,7 +5777,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -5733,7 +5787,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="24" spans="1:8">
@@ -5741,17 +5795,17 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" ht="24" spans="1:8">
@@ -5759,17 +5813,17 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5832,15 +5886,15 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="7">
@@ -5850,15 +5904,15 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="9" t="s">
@@ -5868,7 +5922,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -5882,10 +5936,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -5896,7 +5950,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5905,7 +5959,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5913,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -5921,7 +5975,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5929,7 +5983,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -5937,7 +5991,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5945,7 +5999,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -5953,7 +6007,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6030,7 +6084,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -6038,10 +6092,10 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:8">
@@ -6049,17 +6103,17 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:8">
@@ -6067,17 +6121,17 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" ht="24" spans="1:8">
@@ -6085,17 +6139,17 @@
         <v>3</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
       <c r="G18" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="24" spans="1:8">
@@ -6103,17 +6157,17 @@
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" ht="24" spans="1:8">
@@ -6121,7 +6175,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -6131,7 +6185,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" ht="24" spans="1:8">
@@ -6139,7 +6193,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -6149,7 +6203,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="24" spans="1:8">
@@ -6157,17 +6211,17 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" ht="24" spans="1:8">
@@ -6175,17 +6229,17 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -6248,15 +6302,15 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="7">
@@ -6266,15 +6320,15 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="9" t="s">
@@ -6284,7 +6338,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -6298,10 +6352,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -6312,7 +6366,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -6321,7 +6375,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6329,7 +6383,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -6337,7 +6391,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6345,7 +6399,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -6353,7 +6407,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6361,7 +6415,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -6369,7 +6423,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6446,7 +6500,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -6454,10 +6508,10 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:8">
@@ -6465,17 +6519,17 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:8">
@@ -6483,17 +6537,17 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" ht="24" spans="1:8">
@@ -6501,17 +6555,17 @@
         <v>3</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
       <c r="G18" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="24" spans="1:8">
@@ -6519,17 +6573,17 @@
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" ht="24" spans="1:8">
@@ -6537,7 +6591,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -6547,7 +6601,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" ht="24" spans="1:8">
@@ -6555,7 +6609,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -6565,7 +6619,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="24" spans="1:8">
@@ -6573,17 +6627,17 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" ht="24" spans="1:8">
@@ -6591,17 +6645,17 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -6656,7 +6710,7 @@
   <sheetPr/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
@@ -6664,15 +6718,15 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="7">
@@ -6682,15 +6736,15 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="9" t="s">
@@ -6700,7 +6754,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -6714,10 +6768,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -6728,7 +6782,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -6737,7 +6791,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6745,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -6753,7 +6807,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6761,7 +6815,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -6769,7 +6823,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6858,7 +6912,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -6866,10 +6920,10 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6877,17 +6931,17 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6895,17 +6949,17 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6913,17 +6967,17 @@
         <v>3</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
       <c r="G18" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6931,17 +6985,17 @@
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6949,7 +7003,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -6959,7 +7013,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6967,7 +7021,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -6977,7 +7031,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6985,17 +7039,17 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -7003,17 +7057,17 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -7068,8 +7122,8 @@
   <sheetPr/>
   <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7294,21 +7348,183 @@
       </c>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" ht="30" customHeight="1"/>
-    <row r="14" ht="30" customHeight="1"/>
-    <row r="15" ht="30" customHeight="1"/>
-    <row r="16" ht="30" customHeight="1"/>
-    <row r="17" ht="30" customHeight="1"/>
-    <row r="18" ht="30" customHeight="1"/>
-    <row r="19" ht="30" customHeight="1"/>
-    <row r="20" ht="30" customHeight="1"/>
-    <row r="21" ht="30" customHeight="1"/>
+    <row r="13" ht="30" customHeight="1" spans="2:8">
+      <c r="B13" s="48">
+        <v>10</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="2:8">
+      <c r="B14" s="48">
+        <v>11</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="2:8">
+      <c r="B15" s="48">
+        <v>3</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="2:8">
+      <c r="B16" s="48">
+        <v>4</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="2:8">
+      <c r="B17" s="48">
+        <v>5</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="2:8">
+      <c r="B18" s="48">
+        <v>6</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="2:8">
+      <c r="B19" s="48">
+        <v>7</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="48"/>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="2:8">
+      <c r="B20" s="48">
+        <v>8</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="48"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="2:8">
+      <c r="B21" s="48">
+        <v>9</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="48"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G4:G8 G9:G11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G21 G4:G8 G9:G11 G13:G17 G18:G20">
       <formula1>"新建,增加,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7355,7 +7571,7 @@
     </row>
     <row r="3" ht="16.75" customHeight="1" spans="1:8">
       <c r="A3" s="30" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -7367,33 +7583,33 @@
     </row>
     <row r="4" ht="16.75" customHeight="1" spans="1:8">
       <c r="A4" s="31" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="31" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="34" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H4" s="34"/>
     </row>
     <row r="5" ht="16.75" customHeight="1" spans="1:8">
       <c r="A5" s="31" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="32" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="31" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="35" t="s">
@@ -7403,7 +7619,7 @@
     </row>
     <row r="6" ht="16.75" customHeight="1" spans="1:8">
       <c r="A6" s="30" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -7415,15 +7631,15 @@
     </row>
     <row r="7" ht="16.75" customHeight="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7">
@@ -7433,15 +7649,15 @@
     </row>
     <row r="8" ht="16.75" customHeight="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="9" t="s">
@@ -7451,7 +7667,7 @@
     </row>
     <row r="9" ht="16.75" customHeight="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -7465,10 +7681,10 @@
     </row>
     <row r="10" ht="16.75" customHeight="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -7479,7 +7695,7 @@
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:8">
       <c r="A11" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -7488,7 +7704,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:8">
@@ -7496,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -7504,7 +7720,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:8">
@@ -7512,7 +7728,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -7520,7 +7736,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:8">
@@ -7528,7 +7744,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -7536,7 +7752,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:8">
@@ -7544,7 +7760,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -7552,7 +7768,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:8">
@@ -7560,7 +7776,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -7568,7 +7784,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
@@ -7576,7 +7792,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -7584,7 +7800,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
       <c r="H17" s="18" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:8">
@@ -7625,7 +7841,7 @@
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:8">
       <c r="A21" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -7633,10 +7849,10 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:8">
@@ -7644,7 +7860,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -7654,7 +7870,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:8">
@@ -7665,7 +7881,7 @@
       <c r="E23" s="23"/>
       <c r="F23" s="24"/>
       <c r="G23" s="25" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H23" s="18"/>
     </row>
@@ -7677,7 +7893,7 @@
       <c r="E24" s="23"/>
       <c r="F24" s="24"/>
       <c r="G24" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H24" s="18"/>
     </row>
@@ -7686,17 +7902,17 @@
         <v>2</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:8">
@@ -7704,17 +7920,17 @@
         <v>5</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:8">
@@ -7722,17 +7938,17 @@
         <v>6</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:8">
@@ -7740,17 +7956,17 @@
         <v>7</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:8">
@@ -7758,7 +7974,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -7768,7 +7984,7 @@
         <v>18</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -7857,7 +8073,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="30" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -7872,19 +8088,19 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:11">
       <c r="A3" s="31" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="32" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="31" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="34" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H3" s="34"/>
       <c r="I3" s="41"/>
@@ -7893,15 +8109,15 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="31" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="31" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="35" t="s">
@@ -7914,7 +8130,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="30" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -7929,15 +8145,15 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7">
@@ -7950,15 +8166,15 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="9" t="s">
@@ -7971,7 +8187,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -7988,10 +8204,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8005,7 +8221,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -8014,7 +8230,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
@@ -8025,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -8033,7 +8249,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I11" s="41"/>
       <c r="J11" s="41"/>
@@ -8044,7 +8260,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -8052,7 +8268,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
@@ -8063,7 +8279,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -8071,7 +8287,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
@@ -8169,7 +8385,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -8177,10 +8393,10 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
@@ -8191,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -8201,7 +8417,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
@@ -8212,17 +8428,17 @@
         <v>2</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="25" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="I22" s="41"/>
       <c r="J22" s="41"/>
@@ -8233,17 +8449,17 @@
         <v>3</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
       <c r="G23" s="25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I23" s="41"/>
       <c r="J23" s="41"/>
@@ -8254,17 +8470,17 @@
         <v>4</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
       <c r="G24" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
@@ -8275,7 +8491,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -8285,7 +8501,7 @@
         <v>18</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="41"/>
@@ -8296,17 +8512,17 @@
         <v>6</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15"/>
       <c r="G26" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
@@ -8317,17 +8533,17 @@
         <v>7</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
@@ -8338,17 +8554,17 @@
         <v>8</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
       <c r="G28" s="25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
@@ -8437,7 +8653,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="30" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -8449,33 +8665,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="31" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="32" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="31" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="34" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="31" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="31" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="35" t="s">
@@ -8485,7 +8701,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="30" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -8497,15 +8713,15 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7">
@@ -8515,15 +8731,15 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="9" t="s">
@@ -8533,7 +8749,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -8547,10 +8763,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8561,7 +8777,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -8570,7 +8786,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -8578,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -8586,7 +8802,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -8594,7 +8810,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -8602,7 +8818,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -8610,7 +8826,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -8618,7 +8834,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -8626,7 +8842,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -8634,7 +8850,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -8642,7 +8858,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -8650,7 +8866,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="18" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -8658,7 +8874,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -8666,7 +8882,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="18" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -8674,7 +8890,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -8682,7 +8898,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
       <c r="H17" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -8711,7 +8927,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -8719,10 +8935,10 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" ht="24" spans="1:8">
@@ -8730,17 +8946,17 @@
         <v>1</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="24"/>
       <c r="G21" s="25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="24" spans="1:8">
@@ -8748,7 +8964,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -8758,7 +8974,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" ht="24" spans="1:8">
@@ -8766,17 +8982,17 @@
         <v>3</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
       <c r="G23" s="25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -8784,17 +9000,17 @@
         <v>4</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
       <c r="G24" s="25" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" ht="24" spans="1:8">
@@ -8802,17 +9018,17 @@
         <v>5</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
       <c r="G25" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -8820,17 +9036,17 @@
         <v>6</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15"/>
       <c r="G26" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -8838,17 +9054,17 @@
         <v>7</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24" spans="1:8">
@@ -8856,7 +9072,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -8866,7 +9082,7 @@
         <v>18</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -8952,7 +9168,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="30" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -8964,33 +9180,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="31" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="32" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="31" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="34" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="31" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="31" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="35" t="s">
@@ -9000,7 +9216,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="30" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -9012,15 +9228,15 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7">
@@ -9030,15 +9246,15 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="9" t="s">
@@ -9048,7 +9264,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -9062,10 +9278,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -9076,7 +9292,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -9085,7 +9301,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9093,7 +9309,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -9101,7 +9317,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -9109,7 +9325,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -9117,7 +9333,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -9125,7 +9341,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -9133,7 +9349,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9141,7 +9357,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -9149,7 +9365,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9157,7 +9373,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -9165,7 +9381,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9218,7 +9434,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -9226,10 +9442,10 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9237,17 +9453,17 @@
         <v>1</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="24"/>
       <c r="G21" s="25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -9255,17 +9471,17 @@
         <v>2</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -9273,17 +9489,17 @@
         <v>3</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
       <c r="G23" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -9291,17 +9507,17 @@
         <v>4</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
       <c r="G24" s="25" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" ht="24" spans="1:8">
@@ -9309,17 +9525,17 @@
         <v>5</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
       <c r="G25" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" ht="24" spans="1:8">
@@ -9327,17 +9543,17 @@
         <v>6</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15"/>
       <c r="G26" s="25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -9345,7 +9561,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -9355,7 +9571,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24" spans="1:8">
@@ -9363,7 +9579,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -9373,7 +9589,7 @@
         <v>18</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -9459,7 +9675,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="30" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -9471,33 +9687,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="31" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="32" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="31" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="34" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="31" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="31" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="35" t="s">
@@ -9507,7 +9723,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="30" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -9519,15 +9735,15 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7">
@@ -9537,15 +9753,15 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="9" t="s">
@@ -9555,7 +9771,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -9569,10 +9785,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -9583,7 +9799,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -9592,7 +9808,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9600,7 +9816,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -9608,7 +9824,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -9616,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -9624,7 +9840,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -9632,7 +9848,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -9640,7 +9856,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9648,7 +9864,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -9656,7 +9872,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9664,7 +9880,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -9672,7 +9888,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9680,7 +9896,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -9688,7 +9904,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -9729,7 +9945,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -9737,10 +9953,10 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9748,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -9758,7 +9974,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -9766,17 +9982,17 @@
         <v>2</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -9784,17 +10000,17 @@
         <v>3</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
       <c r="G23" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -9802,7 +10018,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -9812,7 +10028,7 @@
         <v>18</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -9820,17 +10036,17 @@
         <v>5</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
       <c r="G25" s="25" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9838,17 +10054,17 @@
         <v>6</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15"/>
       <c r="G26" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -9856,17 +10072,17 @@
         <v>7</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -9874,17 +10090,17 @@
         <v>8</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
       <c r="G28" s="25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -9970,7 +10186,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="30" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -9982,33 +10198,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="31" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="32" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="31" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="34" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="31" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="31" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="35" t="s">
@@ -10018,7 +10234,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="30" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -10030,15 +10246,15 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7">
@@ -10048,15 +10264,15 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="9" t="s">
@@ -10066,7 +10282,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -10080,10 +10296,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -10094,7 +10310,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -10103,7 +10319,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -10111,7 +10327,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -10119,7 +10335,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -10127,7 +10343,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -10135,7 +10351,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -10143,7 +10359,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -10151,7 +10367,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -10228,7 +10444,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -10236,10 +10452,10 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -10247,17 +10463,17 @@
         <v>1</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="24"/>
       <c r="G21" s="25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -10265,17 +10481,17 @@
         <v>2</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -10283,17 +10499,17 @@
         <v>3</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
       <c r="G23" s="25" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -10301,17 +10517,17 @@
         <v>4</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
       <c r="G24" s="25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -10319,7 +10535,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -10329,7 +10545,7 @@
         <v>18</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -10337,7 +10553,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -10347,7 +10563,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -10355,17 +10571,17 @@
         <v>7</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -10373,17 +10589,17 @@
         <v>8</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
       <c r="G28" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -10469,7 +10685,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="30" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -10481,33 +10697,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="31" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="32" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="31" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="34" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="31" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="31" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="35" t="s">
@@ -10517,7 +10733,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="30" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -10529,15 +10745,15 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7">
@@ -10547,15 +10763,15 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="9" t="s">
@@ -10565,7 +10781,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -10579,10 +10795,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -10593,7 +10809,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -10602,7 +10818,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -10610,7 +10826,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -10618,7 +10834,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -10626,7 +10842,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -10634,7 +10850,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -10642,7 +10858,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -10650,7 +10866,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -10658,7 +10874,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -10666,7 +10882,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -10731,7 +10947,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -10739,10 +10955,10 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -10750,17 +10966,17 @@
         <v>1</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="24"/>
       <c r="G21" s="25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -10768,17 +10984,17 @@
         <v>2</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -10786,17 +11002,17 @@
         <v>3</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
       <c r="G23" s="25" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -10804,17 +11020,17 @@
         <v>4</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
       <c r="G24" s="25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -10822,7 +11038,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -10832,7 +11048,7 @@
         <v>18</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -10840,7 +11056,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -10850,7 +11066,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -10858,17 +11074,17 @@
         <v>7</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -10876,17 +11092,17 @@
         <v>8</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
       <c r="G28" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
